--- a/XAutomateMVC/Rules/e2e_1.xlsx
+++ b/XAutomateMVC/Rules/e2e_1.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>R Id</x:t>
+  </x:si>
   <x:si>
     <x:t>Test Approach</x:t>
   </x:si>
@@ -67,6 +70,9 @@
     <x:t>Description</x:t>
   </x:si>
   <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
     <x:t>End-2-end_data_reconciliation</x:t>
   </x:si>
   <x:si>
@@ -86,6 +92,9 @@
   </x:si>
   <x:si>
     <x:t>Column_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value</x:t>
   </x:si>
   <x:si>
     <x:t>E2E: End-2-end data reconciliation</x:t>
@@ -152,26 +161,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="e2e_1" displayName="e2e_1" ref="A1:Q2" totalsRowShown="0">
-  <x:autoFilter ref="A1:Q2"/>
-  <x:tableColumns count="17">
-    <x:tableColumn id="1" name="Test Approach"/>
-    <x:tableColumn id="2" name="Rule Name"/>
-    <x:tableColumn id="3" name="Parameter"/>
-    <x:tableColumn id="4" name="Query"/>
-    <x:tableColumn id="5" name="Parameter Name 0"/>
-    <x:tableColumn id="6" name="Parameter Name 1"/>
-    <x:tableColumn id="7" name="Parameter Name 2"/>
-    <x:tableColumn id="8" name="Parameter Name 3"/>
-    <x:tableColumn id="9" name="Parameter Name 4"/>
-    <x:tableColumn id="10" name="Parameter Name 5"/>
-    <x:tableColumn id="11" name="Parameter Name 6"/>
-    <x:tableColumn id="12" name="Parameter Name 7"/>
-    <x:tableColumn id="13" name="Parameter Name 8"/>
-    <x:tableColumn id="14" name="Parameter Name 9"/>
-    <x:tableColumn id="15" name="Parameter Name 10"/>
-    <x:tableColumn id="16" name="Parameter Name 11"/>
-    <x:tableColumn id="17" name="Description"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="e2e_1" displayName="e2e_1" ref="A1:R2" totalsRowShown="0">
+  <x:autoFilter ref="A1:R2"/>
+  <x:tableColumns count="18">
+    <x:tableColumn id="1" name="R Id"/>
+    <x:tableColumn id="2" name="Test Approach"/>
+    <x:tableColumn id="3" name="Rule Name"/>
+    <x:tableColumn id="4" name="Parameter"/>
+    <x:tableColumn id="5" name="Query"/>
+    <x:tableColumn id="6" name="Parameter Name 0"/>
+    <x:tableColumn id="7" name="Parameter Name 1"/>
+    <x:tableColumn id="8" name="Parameter Name 2"/>
+    <x:tableColumn id="9" name="Parameter Name 3"/>
+    <x:tableColumn id="10" name="Parameter Name 4"/>
+    <x:tableColumn id="11" name="Parameter Name 5"/>
+    <x:tableColumn id="12" name="Parameter Name 6"/>
+    <x:tableColumn id="13" name="Parameter Name 7"/>
+    <x:tableColumn id="14" name="Parameter Name 8"/>
+    <x:tableColumn id="15" name="Parameter Name 9"/>
+    <x:tableColumn id="16" name="Parameter Name 10"/>
+    <x:tableColumn id="17" name="Parameter Name 11"/>
+    <x:tableColumn id="18" name="Description"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -465,13 +475,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q2"/>
+  <x:dimension ref="A1:R2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:17">
+    <x:row r="1" spans="1:18">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -523,58 +533,64 @@
       <x:c r="Q1" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:17">
+    <x:row r="2" spans="1:18">
       <x:c r="A2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="O2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q2" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
